--- a/BackEnd/JAVA/Code_Style_Guide.xlsx
+++ b/BackEnd/JAVA/Code_Style_Guide.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>Type</t>
   </si>
@@ -103,7 +103,10 @@
     <t>all uppercase letters, with each word separated from the next by a single underscore.</t>
   </si>
   <si>
-    <t> </t>
+    <t>CONSTANT_NAME</t>
+  </si>
+  <si>
+    <t>constant_name</t>
   </si>
   <si>
     <t>parameter names</t>
@@ -112,7 +115,19 @@
     <t>lowerCamelCase</t>
   </si>
   <si>
+    <t>paramName</t>
+  </si>
+  <si>
+    <t>param_name</t>
+  </si>
+  <si>
     <t>Local variable name</t>
+  </si>
+  <si>
+    <t>localVariableName</t>
+  </si>
+  <si>
+    <t>local_variable_name</t>
   </si>
   <si>
     <t>Type variable name</t>
@@ -1089,7 +1104,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
@@ -1181,7 +1196,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" ht="18" spans="1:3">
+    <row r="6" ht="18" spans="1:4">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1191,35 +1206,50 @@
       <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
-        <v>27</v>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" ht="71" spans="1:4">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
